--- a/Code/Results/Cases/Case_5_248/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_248/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.33967577042334</v>
+        <v>8.220758201098199</v>
       </c>
       <c r="C2">
-        <v>7.402211658218616</v>
+        <v>4.93467453886397</v>
       </c>
       <c r="D2">
-        <v>4.798207551823172</v>
+        <v>4.881175997749213</v>
       </c>
       <c r="E2">
-        <v>14.52908422266337</v>
+        <v>12.67062366166256</v>
       </c>
       <c r="F2">
-        <v>18.00076583160039</v>
+        <v>23.90263805532801</v>
       </c>
       <c r="I2">
-        <v>12.96471473682369</v>
+        <v>20.26921622773893</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.3214123483135</v>
+        <v>8.14779931892344</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.58832613448594</v>
+        <v>13.46619406058953</v>
       </c>
       <c r="N2">
-        <v>11.82090106875747</v>
+        <v>18.33807785221151</v>
       </c>
       <c r="O2">
-        <v>14.38220696841305</v>
+        <v>21.41567170606819</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.57291780387417</v>
+        <v>7.92806961936692</v>
       </c>
       <c r="C3">
-        <v>6.997294916204886</v>
+        <v>4.73823452452827</v>
       </c>
       <c r="D3">
-        <v>4.633443768085686</v>
+        <v>4.820547725536577</v>
       </c>
       <c r="E3">
-        <v>13.66304789840716</v>
+        <v>12.4573648603666</v>
       </c>
       <c r="F3">
-        <v>17.6094464201699</v>
+        <v>23.90998162060156</v>
       </c>
       <c r="I3">
-        <v>13.04642453173715</v>
+        <v>20.341392761627</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.70013776427554</v>
+        <v>7.951884181708333</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.65100804646742</v>
+        <v>13.29288771035219</v>
       </c>
       <c r="N3">
-        <v>12.01726865574145</v>
+        <v>18.3963928304861</v>
       </c>
       <c r="O3">
-        <v>14.302950400989</v>
+        <v>21.46902490471089</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.07550075387332</v>
+        <v>7.744015815610905</v>
       </c>
       <c r="C4">
-        <v>6.736477453495709</v>
+        <v>4.612328853306642</v>
       </c>
       <c r="D4">
-        <v>4.528587501262807</v>
+        <v>4.782338047141671</v>
       </c>
       <c r="E4">
-        <v>13.11524946681921</v>
+        <v>12.32896841116271</v>
       </c>
       <c r="F4">
-        <v>17.38098984861254</v>
+        <v>23.92074991205313</v>
       </c>
       <c r="I4">
-        <v>13.1065573764717</v>
+        <v>20.38948115228745</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.29942742489447</v>
+        <v>7.830426438292053</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.04465171729504</v>
+        <v>13.18861510946581</v>
       </c>
       <c r="N4">
-        <v>12.14045759543495</v>
+        <v>18.43385432712245</v>
       </c>
       <c r="O4">
-        <v>14.26628198212819</v>
+        <v>21.50634686456419</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.86611377585222</v>
+        <v>7.668040314494464</v>
       </c>
       <c r="C5">
-        <v>6.62716469456056</v>
+        <v>4.559733325199814</v>
       </c>
       <c r="D5">
-        <v>4.484965936217542</v>
+        <v>4.76652783375876</v>
       </c>
       <c r="E5">
-        <v>12.88819349827831</v>
+        <v>12.27736165416721</v>
       </c>
       <c r="F5">
-        <v>17.29092104122971</v>
+        <v>23.92671142334098</v>
       </c>
       <c r="I5">
-        <v>13.13346423691671</v>
+        <v>20.41002495245291</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.13135593525146</v>
+        <v>7.78071174132229</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.7897800508684</v>
+        <v>13.14671187391397</v>
       </c>
       <c r="N5">
-        <v>12.1913383958777</v>
+        <v>18.44953781459846</v>
       </c>
       <c r="O5">
-        <v>14.25426385168931</v>
+        <v>21.52270097668872</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.83094192991652</v>
+        <v>7.655369648302027</v>
       </c>
       <c r="C6">
-        <v>6.60883192558373</v>
+        <v>4.550923444353755</v>
       </c>
       <c r="D6">
-        <v>4.477669887792094</v>
+        <v>4.763888331842502</v>
       </c>
       <c r="E6">
-        <v>12.85026730808472</v>
+        <v>12.26883781789243</v>
       </c>
       <c r="F6">
-        <v>17.27614962831062</v>
+        <v>23.92779631768746</v>
       </c>
       <c r="I6">
-        <v>13.13807424915744</v>
+        <v>20.41349342447848</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.10316127873498</v>
+        <v>7.772445587380139</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.74698870274974</v>
+        <v>13.13979089846945</v>
       </c>
       <c r="N6">
-        <v>12.1998288241388</v>
+        <v>18.45216730573743</v>
       </c>
       <c r="O6">
-        <v>14.25244210976129</v>
+        <v>21.52548565680572</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.07270393699687</v>
+        <v>7.742994952899007</v>
       </c>
       <c r="C7">
-        <v>6.735015421003551</v>
+        <v>4.611624686104484</v>
       </c>
       <c r="D7">
-        <v>4.52800276545819</v>
+        <v>4.782125784066163</v>
       </c>
       <c r="E7">
-        <v>13.11220247421523</v>
+        <v>12.32826942670874</v>
       </c>
       <c r="F7">
-        <v>17.37976281521273</v>
+        <v>23.9208239421829</v>
       </c>
       <c r="I7">
-        <v>13.10691065860221</v>
+        <v>20.38975437859706</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.29718001046299</v>
+        <v>7.82975675888469</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.04124593671492</v>
+        <v>13.18804753758584</v>
       </c>
       <c r="N7">
-        <v>12.14114100892003</v>
+        <v>18.43406414753473</v>
       </c>
       <c r="O7">
-        <v>14.26610818479342</v>
+        <v>21.50656278846693</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.08082598638556</v>
+        <v>8.120808665561519</v>
       </c>
       <c r="C8">
-        <v>7.265148005997904</v>
+        <v>4.868063808845049</v>
       </c>
       <c r="D8">
-        <v>4.742183469147579</v>
+        <v>4.86048019692163</v>
       </c>
       <c r="E8">
-        <v>14.23391719523658</v>
+        <v>12.59660952864927</v>
       </c>
       <c r="F8">
-        <v>17.86342440469916</v>
+        <v>23.90387090462704</v>
       </c>
       <c r="I8">
-        <v>12.99075746793353</v>
+        <v>20.29331926060177</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.11122240134866</v>
+        <v>8.08053256372455</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.27152304546605</v>
+        <v>13.40602517712256</v>
       </c>
       <c r="N8">
-        <v>11.88807866177884</v>
+        <v>18.35784193395293</v>
       </c>
       <c r="O8">
-        <v>14.35233594578811</v>
+        <v>21.43311955355933</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.84659974229268</v>
+        <v>8.822558160894069</v>
       </c>
       <c r="C9">
-        <v>8.206784160715795</v>
+        <v>5.327376979641368</v>
       </c>
       <c r="D9">
-        <v>5.131522218947114</v>
+        <v>5.00599396224014</v>
       </c>
       <c r="E9">
-        <v>16.38405140672738</v>
+        <v>13.13965335086819</v>
       </c>
       <c r="F9">
-        <v>18.90268999876166</v>
+        <v>23.92027909411717</v>
       </c>
       <c r="I9">
-        <v>12.84682064797455</v>
+        <v>20.13418302714175</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.55300856520967</v>
+        <v>8.560009463997368</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.44093244927521</v>
+        <v>13.84815894264739</v>
       </c>
       <c r="N9">
-        <v>11.41155088311694</v>
+        <v>18.22145116971608</v>
       </c>
       <c r="O9">
-        <v>14.62044888708417</v>
+        <v>21.3253969143252</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.01593766150292</v>
+        <v>9.30875641816662</v>
       </c>
       <c r="C10">
-        <v>8.837987424960151</v>
+        <v>5.636506771014067</v>
       </c>
       <c r="D10">
-        <v>5.397289888110072</v>
+        <v>5.107512961311321</v>
       </c>
       <c r="E10">
-        <v>17.9890135666065</v>
+        <v>13.54438947012217</v>
       </c>
       <c r="F10">
-        <v>19.7173717041795</v>
+        <v>23.96253064923669</v>
       </c>
       <c r="I10">
-        <v>12.79899929731755</v>
+        <v>20.03560008479012</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.51656371044027</v>
+        <v>8.900969501184454</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.88935220183147</v>
+        <v>14.17885303274385</v>
       </c>
       <c r="N10">
-        <v>11.07191623863319</v>
+        <v>18.1291368826326</v>
       </c>
       <c r="O10">
-        <v>14.88265831211825</v>
+        <v>21.26850238276326</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.5204023269251</v>
+        <v>9.522602549761755</v>
       </c>
       <c r="C11">
-        <v>9.111942527782807</v>
+        <v>5.770699597202014</v>
       </c>
       <c r="D11">
-        <v>5.513526784439342</v>
+        <v>5.152440654569366</v>
       </c>
       <c r="E11">
-        <v>18.68890386138351</v>
+        <v>13.72883384716153</v>
       </c>
       <c r="F11">
-        <v>20.09817939019866</v>
+        <v>23.98827233850564</v>
       </c>
       <c r="I11">
-        <v>12.79135717814434</v>
+        <v>19.99474654074817</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.93402848536626</v>
+        <v>9.052899603146649</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.51745501105695</v>
+        <v>14.32991228314893</v>
       </c>
       <c r="N11">
-        <v>10.91931379339057</v>
+        <v>18.08883679835117</v>
       </c>
       <c r="O11">
-        <v>15.01703105452877</v>
+        <v>21.24747247171424</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.70750867285263</v>
+        <v>9.60245948572814</v>
       </c>
       <c r="C12">
-        <v>9.213791370534304</v>
+        <v>5.820570788022919</v>
       </c>
       <c r="D12">
-        <v>5.556854242307902</v>
+        <v>5.169266447463502</v>
       </c>
       <c r="E12">
-        <v>18.94969499373485</v>
+        <v>13.79865038772116</v>
       </c>
       <c r="F12">
-        <v>20.24377549159478</v>
+        <v>23.99895294670428</v>
       </c>
       <c r="I12">
-        <v>12.79062308332415</v>
+        <v>19.97985158671269</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.08911418340194</v>
+        <v>9.109920524694024</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.75094396428716</v>
+        <v>14.38715058152361</v>
       </c>
       <c r="N12">
-        <v>10.86176809834449</v>
+        <v>18.07381852327948</v>
       </c>
       <c r="O12">
-        <v>15.07015235964635</v>
+        <v>21.24020805139585</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.66738599339567</v>
+        <v>9.585311760542202</v>
       </c>
       <c r="C13">
-        <v>9.191940432375437</v>
+        <v>5.809872433777492</v>
       </c>
       <c r="D13">
-        <v>5.547553804563992</v>
+        <v>5.165651153475751</v>
       </c>
       <c r="E13">
-        <v>18.89371587836067</v>
+        <v>13.78361659136027</v>
       </c>
       <c r="F13">
-        <v>20.2123579591672</v>
+        <v>23.99661129065864</v>
       </c>
       <c r="I13">
-        <v>12.79068301911139</v>
+        <v>19.98303387008159</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.05584700232071</v>
+        <v>9.097663640595323</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.70085069959702</v>
+        <v>14.37482256752969</v>
       </c>
       <c r="N13">
-        <v>10.87415137597495</v>
+        <v>18.0770422104146</v>
       </c>
       <c r="O13">
-        <v>15.05861121903862</v>
+        <v>21.2417414583372</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.53587414022177</v>
+        <v>9.529195273929759</v>
       </c>
       <c r="C14">
-        <v>9.12035957205228</v>
+        <v>5.774821566050394</v>
       </c>
       <c r="D14">
-        <v>5.51710526379672</v>
+        <v>5.153828716785764</v>
       </c>
       <c r="E14">
-        <v>18.71044369734118</v>
+        <v>13.7345786916434</v>
       </c>
       <c r="F14">
-        <v>20.1101301680876</v>
+        <v>23.98913237620653</v>
       </c>
       <c r="I14">
-        <v>12.79125274080075</v>
+        <v>19.99350958470743</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.9468475563723</v>
+        <v>9.057601305006093</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.53675125557753</v>
+        <v>14.33462090967067</v>
       </c>
       <c r="N14">
-        <v>10.91457482187798</v>
+        <v>18.08759638232132</v>
       </c>
       <c r="O14">
-        <v>15.02135617207691</v>
+        <v>21.2468608038288</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.45480925931959</v>
+        <v>9.494674315882326</v>
       </c>
       <c r="C15">
-        <v>9.076268033043897</v>
+        <v>5.753228332655684</v>
       </c>
       <c r="D15">
-        <v>5.49836443255719</v>
+        <v>5.146562530240079</v>
       </c>
       <c r="E15">
-        <v>18.59763497318283</v>
+        <v>13.70453564594259</v>
       </c>
       <c r="F15">
-        <v>20.04769192071117</v>
+        <v>23.98467263681512</v>
       </c>
       <c r="I15">
-        <v>12.79188690246006</v>
+        <v>20.00000123439884</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.87969181724716</v>
+        <v>9.032993762969795</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.4356699394192</v>
+        <v>14.30999925344997</v>
       </c>
       <c r="N15">
-        <v>10.93936583292788</v>
+        <v>18.09409266380947</v>
       </c>
       <c r="O15">
-        <v>14.99882964112439</v>
+        <v>21.25008764069561</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.98241909907632</v>
+        <v>9.29462758615864</v>
       </c>
       <c r="C16">
-        <v>8.819818732742252</v>
+        <v>5.627605760554498</v>
       </c>
       <c r="D16">
-        <v>5.389598070921537</v>
+        <v>5.10455099138426</v>
       </c>
       <c r="E16">
-        <v>17.94267462925641</v>
+        <v>13.53233566204107</v>
       </c>
       <c r="F16">
-        <v>19.69268383201654</v>
+        <v>23.9609791935481</v>
       </c>
       <c r="I16">
-        <v>12.79979379211251</v>
+        <v>20.0383504077557</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.48886150853683</v>
+        <v>8.890971813416011</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.8476902520062</v>
+        <v>14.16898885208928</v>
       </c>
       <c r="N16">
-        <v>11.08192473247484</v>
+        <v>18.1318045821771</v>
       </c>
       <c r="O16">
-        <v>14.87418627750824</v>
+        <v>21.2699744976465</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.68560441742338</v>
+        <v>9.169977243428658</v>
       </c>
       <c r="C17">
-        <v>8.659119850615349</v>
+        <v>5.548877887368751</v>
       </c>
       <c r="D17">
-        <v>5.321665251992595</v>
+        <v>5.078452030784241</v>
       </c>
       <c r="E17">
-        <v>17.53320865068408</v>
+        <v>13.42672583092446</v>
       </c>
       <c r="F17">
-        <v>19.47745646476507</v>
+        <v>23.94811108637703</v>
       </c>
       <c r="I17">
-        <v>12.80835082026743</v>
+        <v>20.06289984857985</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.24375474978679</v>
+        <v>8.802992225524294</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.47914355191734</v>
+        <v>14.08260451854619</v>
       </c>
       <c r="N17">
-        <v>11.16984460422068</v>
+        <v>18.15537273149127</v>
       </c>
       <c r="O17">
-        <v>14.80163642698772</v>
+        <v>21.2834182067339</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.51229665370271</v>
+        <v>9.097595428052369</v>
       </c>
       <c r="C18">
-        <v>8.565448722223003</v>
+        <v>5.502991265674557</v>
       </c>
       <c r="D18">
-        <v>5.28215418460954</v>
+        <v>5.06332298787998</v>
       </c>
       <c r="E18">
-        <v>17.29484385846921</v>
+        <v>13.36601708395036</v>
       </c>
       <c r="F18">
-        <v>19.35462811554659</v>
+        <v>23.94132386531529</v>
       </c>
       <c r="I18">
-        <v>12.81459289558995</v>
+        <v>20.07739573771577</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.10081170516215</v>
+        <v>8.75209293475185</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.26426259714464</v>
+        <v>14.03298054403693</v>
       </c>
       <c r="N18">
-        <v>11.22059454633265</v>
+        <v>18.16908803538276</v>
       </c>
       <c r="O18">
-        <v>14.76132457209494</v>
+        <v>21.29160726349697</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.45317241033778</v>
+        <v>9.072972548324882</v>
       </c>
       <c r="C19">
-        <v>8.533520060199757</v>
+        <v>5.487351689385169</v>
       </c>
       <c r="D19">
-        <v>5.268701816440277</v>
+        <v>5.058180573839156</v>
       </c>
       <c r="E19">
-        <v>17.21364505050841</v>
+        <v>13.34547054718802</v>
       </c>
       <c r="F19">
-        <v>19.31320862046728</v>
+        <v>23.93913144773722</v>
       </c>
       <c r="I19">
-        <v>12.81692918650147</v>
+        <v>20.08236828355329</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.0520764106674</v>
+        <v>8.734810267819695</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.19100711554766</v>
+        <v>14.01619104507919</v>
       </c>
       <c r="N19">
-        <v>11.23780957719358</v>
+        <v>18.17375923509661</v>
       </c>
       <c r="O19">
-        <v>14.74791689933129</v>
+        <v>21.29445830826885</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.71746849282611</v>
+        <v>9.183318029396089</v>
       </c>
       <c r="C20">
-        <v>8.676354990525027</v>
+        <v>5.557321313964576</v>
       </c>
       <c r="D20">
-        <v>5.328942281381016</v>
+        <v>5.081242534019262</v>
       </c>
       <c r="E20">
-        <v>17.57709133818642</v>
+        <v>13.43796508805351</v>
       </c>
       <c r="F20">
-        <v>19.50026850074043</v>
+        <v>23.94941738623807</v>
       </c>
       <c r="I20">
-        <v>12.80730232741815</v>
+        <v>20.06024762563121</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.27005008047371</v>
+        <v>8.812388826863486</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.5186759207152</v>
+        <v>14.09179425833044</v>
       </c>
       <c r="N20">
-        <v>11.16046689792749</v>
+        <v>18.15284735940273</v>
       </c>
       <c r="O20">
-        <v>14.80921233724271</v>
+        <v>21.28193983399473</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.57460860382483</v>
+        <v>9.545708997115664</v>
       </c>
       <c r="C21">
-        <v>9.14143589872328</v>
+        <v>5.785142637366083</v>
       </c>
       <c r="D21">
-        <v>5.526067569389056</v>
+        <v>5.157306392372437</v>
       </c>
       <c r="E21">
-        <v>18.7643894384466</v>
+        <v>13.74898367551838</v>
       </c>
       <c r="F21">
-        <v>20.14011972221564</v>
+        <v>23.99130384374569</v>
       </c>
       <c r="I21">
-        <v>12.79102572967754</v>
+        <v>19.99041698698749</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.97894468985146</v>
+        <v>9.06938289035255</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.58506899444373</v>
+        <v>14.3464285771307</v>
       </c>
       <c r="N21">
-        <v>10.90269518259331</v>
+        <v>18.0844897939358</v>
       </c>
       <c r="O21">
-        <v>15.03223765445139</v>
+        <v>21.24533814259657</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.11194576136031</v>
+        <v>9.775987070629306</v>
       </c>
       <c r="C22">
-        <v>9.434370495367604</v>
+        <v>5.928523438850735</v>
       </c>
       <c r="D22">
-        <v>5.650878059280857</v>
+        <v>5.205923443704933</v>
       </c>
       <c r="E22">
-        <v>19.51568619222559</v>
+        <v>13.9520528783209</v>
       </c>
       <c r="F22">
-        <v>20.56638627173307</v>
+        <v>24.02411303692283</v>
       </c>
       <c r="I22">
-        <v>12.79303941716271</v>
+        <v>19.94813307071274</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.42477231631496</v>
+        <v>9.26438895883498</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.25664165040242</v>
+        <v>14.51302903587995</v>
       </c>
       <c r="N22">
-        <v>10.73561814031367</v>
+        <v>18.04122708891403</v>
       </c>
       <c r="O22">
-        <v>15.19106578381502</v>
+        <v>21.22549252207365</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.82723984060841</v>
+        <v>9.653704424264181</v>
       </c>
       <c r="C23">
-        <v>9.279031785489826</v>
+        <v>5.8525086545157</v>
       </c>
       <c r="D23">
-        <v>5.584637794205747</v>
+        <v>5.180078061281628</v>
       </c>
       <c r="E23">
-        <v>19.11692569412846</v>
+        <v>13.84371353768609</v>
       </c>
       <c r="F23">
-        <v>20.33816285079827</v>
+        <v>24.00610685233294</v>
       </c>
       <c r="I23">
-        <v>12.79076327789353</v>
+        <v>19.97039343474979</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.18842267375273</v>
+        <v>9.147701070672316</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.90050853078775</v>
+        <v>14.42411222347832</v>
       </c>
       <c r="N23">
-        <v>10.82467394950938</v>
+        <v>18.06418829578033</v>
       </c>
       <c r="O23">
-        <v>15.10507960056802</v>
+        <v>21.23571114922781</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.70307104737418</v>
+        <v>9.177288893293643</v>
       </c>
       <c r="C24">
-        <v>8.668566980865709</v>
+        <v>5.5535059857793</v>
       </c>
       <c r="D24">
-        <v>5.325653754004305</v>
+        <v>5.07998133445313</v>
       </c>
       <c r="E24">
-        <v>17.55726119429091</v>
+        <v>13.43288378996904</v>
       </c>
       <c r="F24">
-        <v>19.48995234299889</v>
+        <v>23.94882490502122</v>
       </c>
       <c r="I24">
-        <v>12.80777224151752</v>
+        <v>20.06144550552796</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.25816827790609</v>
+        <v>8.808141611681162</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.50081268163042</v>
+        <v>14.08763944967563</v>
       </c>
       <c r="N24">
-        <v>11.16470592230024</v>
+        <v>18.15398856399855</v>
       </c>
       <c r="O24">
-        <v>14.80578291882446</v>
+        <v>21.28260677325956</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.39146498721134</v>
+        <v>8.637517193199793</v>
       </c>
       <c r="C25">
-        <v>7.962657412926874</v>
+        <v>5.20798468406523</v>
       </c>
       <c r="D25">
-        <v>5.029656450370023</v>
+        <v>4.967545162502847</v>
       </c>
       <c r="E25">
-        <v>15.76559276138708</v>
+        <v>12.99141156243948</v>
       </c>
       <c r="F25">
-        <v>18.61224494687291</v>
+        <v>23.9105281031351</v>
       </c>
       <c r="I25">
-        <v>12.87609366949885</v>
+        <v>20.17401833771684</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.17971299424201</v>
+        <v>8.432024242600122</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.87982407366902</v>
+        <v>13.72729739277816</v>
       </c>
       <c r="N25">
-        <v>11.53850755244567</v>
+        <v>18.25695665149558</v>
       </c>
       <c r="O25">
-        <v>14.53679263200207</v>
+        <v>21.35063941834073</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_248/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_248/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.220758201098199</v>
+        <v>12.33967577042333</v>
       </c>
       <c r="C2">
-        <v>4.93467453886397</v>
+        <v>7.402211658218436</v>
       </c>
       <c r="D2">
-        <v>4.881175997749213</v>
+        <v>4.798207551823332</v>
       </c>
       <c r="E2">
-        <v>12.67062366166256</v>
+        <v>14.52908422266334</v>
       </c>
       <c r="F2">
-        <v>23.90263805532801</v>
+        <v>18.00076583160047</v>
       </c>
       <c r="I2">
-        <v>20.26921622773893</v>
+        <v>12.96471473682377</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.14779931892344</v>
+        <v>11.32141234831343</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.46619406058953</v>
+        <v>14.58832613448591</v>
       </c>
       <c r="N2">
-        <v>18.33807785221151</v>
+        <v>11.8209010687575</v>
       </c>
       <c r="O2">
-        <v>21.41567170606819</v>
+        <v>14.38220696841317</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.92806961936692</v>
+        <v>11.57291780387419</v>
       </c>
       <c r="C3">
-        <v>4.73823452452827</v>
+        <v>6.997294916205123</v>
       </c>
       <c r="D3">
-        <v>4.820547725536577</v>
+        <v>4.633443768085708</v>
       </c>
       <c r="E3">
-        <v>12.4573648603666</v>
+        <v>13.66304789840717</v>
       </c>
       <c r="F3">
-        <v>23.90998162060156</v>
+        <v>17.60944642016977</v>
       </c>
       <c r="I3">
-        <v>20.341392761627</v>
+        <v>13.04642453173701</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.951884181708333</v>
+        <v>10.7001377642756</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.29288771035219</v>
+        <v>13.6510080464674</v>
       </c>
       <c r="N3">
-        <v>18.3963928304861</v>
+        <v>12.01726865574135</v>
       </c>
       <c r="O3">
-        <v>21.46902490471089</v>
+        <v>14.30295040098883</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.744015815610905</v>
+        <v>11.07550075387325</v>
       </c>
       <c r="C4">
-        <v>4.612328853306642</v>
+        <v>6.736477453495709</v>
       </c>
       <c r="D4">
-        <v>4.782338047141671</v>
+        <v>4.52858750126297</v>
       </c>
       <c r="E4">
-        <v>12.32896841116271</v>
+        <v>13.11524946681921</v>
       </c>
       <c r="F4">
-        <v>23.92074991205313</v>
+        <v>17.38098984861251</v>
       </c>
       <c r="I4">
-        <v>20.38948115228745</v>
+        <v>13.10655737647176</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.830426438292053</v>
+        <v>10.29942742489442</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.18861510946581</v>
+        <v>13.04465171729501</v>
       </c>
       <c r="N4">
-        <v>18.43385432712245</v>
+        <v>12.14045759543491</v>
       </c>
       <c r="O4">
-        <v>21.50634686456419</v>
+        <v>14.26628198212825</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.668040314494464</v>
+        <v>10.86611377585221</v>
       </c>
       <c r="C5">
-        <v>4.559733325199814</v>
+        <v>6.627164694560546</v>
       </c>
       <c r="D5">
-        <v>4.76652783375876</v>
+        <v>4.4849659362176</v>
       </c>
       <c r="E5">
-        <v>12.27736165416721</v>
+        <v>12.88819349827831</v>
       </c>
       <c r="F5">
-        <v>23.92671142334098</v>
+        <v>17.29092104122964</v>
       </c>
       <c r="I5">
-        <v>20.41002495245291</v>
+        <v>13.13346423691669</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.78071174132229</v>
+        <v>10.13135593525146</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.14671187391397</v>
+        <v>12.7897800508684</v>
       </c>
       <c r="N5">
-        <v>18.44953781459846</v>
+        <v>12.19133839587767</v>
       </c>
       <c r="O5">
-        <v>21.52270097668872</v>
+        <v>14.25426385168929</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.655369648302027</v>
+        <v>10.83094192991652</v>
       </c>
       <c r="C6">
-        <v>4.550923444353755</v>
+        <v>6.60883192558389</v>
       </c>
       <c r="D6">
-        <v>4.763888331842502</v>
+        <v>4.477669887792088</v>
       </c>
       <c r="E6">
-        <v>12.26883781789243</v>
+        <v>12.85026730808473</v>
       </c>
       <c r="F6">
-        <v>23.92779631768746</v>
+        <v>17.27614962831045</v>
       </c>
       <c r="I6">
-        <v>20.41349342447848</v>
+        <v>13.1380742491573</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.772445587380139</v>
+        <v>10.10316127873504</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.13979089846945</v>
+        <v>12.74698870274978</v>
       </c>
       <c r="N6">
-        <v>18.45216730573743</v>
+        <v>12.19982882413873</v>
       </c>
       <c r="O6">
-        <v>21.52548565680572</v>
+        <v>14.25244210976111</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.742994952899007</v>
+        <v>11.0727039369968</v>
       </c>
       <c r="C7">
-        <v>4.611624686104484</v>
+        <v>6.735015421003725</v>
       </c>
       <c r="D7">
-        <v>4.782125784066163</v>
+        <v>4.528002765458076</v>
       </c>
       <c r="E7">
-        <v>12.32826942670874</v>
+        <v>13.11220247421523</v>
       </c>
       <c r="F7">
-        <v>23.9208239421829</v>
+        <v>17.37976281521274</v>
       </c>
       <c r="I7">
-        <v>20.38975437859706</v>
+        <v>13.10691065860231</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.82975675888469</v>
+        <v>10.29718001046299</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.18804753758584</v>
+        <v>13.04124593671492</v>
       </c>
       <c r="N7">
-        <v>18.43406414753473</v>
+        <v>12.14114100892</v>
       </c>
       <c r="O7">
-        <v>21.50656278846693</v>
+        <v>14.26610818479339</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.120808665561519</v>
+        <v>12.08082598638569</v>
       </c>
       <c r="C8">
-        <v>4.868063808845049</v>
+        <v>7.265148005997739</v>
       </c>
       <c r="D8">
-        <v>4.86048019692163</v>
+        <v>4.742183469147523</v>
       </c>
       <c r="E8">
-        <v>12.59660952864927</v>
+        <v>14.23391719523657</v>
       </c>
       <c r="F8">
-        <v>23.90387090462704</v>
+        <v>17.86342440469914</v>
       </c>
       <c r="I8">
-        <v>20.29331926060177</v>
+        <v>12.99075746793343</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.08053256372455</v>
+        <v>11.11122240134869</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.40602517712256</v>
+        <v>14.27152304546607</v>
       </c>
       <c r="N8">
-        <v>18.35784193395293</v>
+        <v>11.8880786617788</v>
       </c>
       <c r="O8">
-        <v>21.43311955355933</v>
+        <v>14.35233594578805</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.822558160894069</v>
+        <v>13.84659974229272</v>
       </c>
       <c r="C9">
-        <v>5.327376979641368</v>
+        <v>8.206784160715809</v>
       </c>
       <c r="D9">
-        <v>5.00599396224014</v>
+        <v>5.131522218947126</v>
       </c>
       <c r="E9">
-        <v>13.13965335086819</v>
+        <v>16.38405140672737</v>
       </c>
       <c r="F9">
-        <v>23.92027909411717</v>
+        <v>18.90268999876165</v>
       </c>
       <c r="I9">
-        <v>20.13418302714175</v>
+        <v>12.84682064797455</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.560009463997368</v>
+        <v>12.55300856520975</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.84815894264739</v>
+        <v>16.44093244927525</v>
       </c>
       <c r="N9">
-        <v>18.22145116971608</v>
+        <v>11.41155088311694</v>
       </c>
       <c r="O9">
-        <v>21.3253969143252</v>
+        <v>14.62044888708414</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.30875641816662</v>
+        <v>15.01593766150295</v>
       </c>
       <c r="C10">
-        <v>5.636506771014067</v>
+        <v>8.837987424960133</v>
       </c>
       <c r="D10">
-        <v>5.107512961311321</v>
+        <v>5.397289888110078</v>
       </c>
       <c r="E10">
-        <v>13.54438947012217</v>
+        <v>17.98901356660653</v>
       </c>
       <c r="F10">
-        <v>23.96253064923669</v>
+        <v>19.71737170417949</v>
       </c>
       <c r="I10">
-        <v>20.03560008479012</v>
+        <v>12.7989992973175</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.900969501184454</v>
+        <v>13.51656371044027</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.17885303274385</v>
+        <v>17.88935220183151</v>
       </c>
       <c r="N10">
-        <v>18.1291368826326</v>
+        <v>11.07191623863309</v>
       </c>
       <c r="O10">
-        <v>21.26850238276326</v>
+        <v>14.8826583121182</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.522602549761755</v>
+        <v>15.52040232692513</v>
       </c>
       <c r="C11">
-        <v>5.770699597202014</v>
+        <v>9.111942527782794</v>
       </c>
       <c r="D11">
-        <v>5.152440654569366</v>
+        <v>5.513526784439522</v>
       </c>
       <c r="E11">
-        <v>13.72883384716153</v>
+        <v>18.68890386138359</v>
       </c>
       <c r="F11">
-        <v>23.98827233850564</v>
+        <v>20.09817939019864</v>
       </c>
       <c r="I11">
-        <v>19.99474654074817</v>
+        <v>12.79135717814433</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.052899603146649</v>
+        <v>13.93402848536627</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.32991228314893</v>
+        <v>18.51745501105699</v>
       </c>
       <c r="N11">
-        <v>18.08883679835117</v>
+        <v>10.91931379339054</v>
       </c>
       <c r="O11">
-        <v>21.24747247171424</v>
+        <v>15.01703105452877</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.60245948572814</v>
+        <v>15.70750867285259</v>
       </c>
       <c r="C12">
-        <v>5.820570788022919</v>
+        <v>9.213791370534331</v>
       </c>
       <c r="D12">
-        <v>5.169266447463502</v>
+        <v>5.556854242307967</v>
       </c>
       <c r="E12">
-        <v>13.79865038772116</v>
+        <v>18.94969499373478</v>
       </c>
       <c r="F12">
-        <v>23.99895294670428</v>
+        <v>20.24377549159482</v>
       </c>
       <c r="I12">
-        <v>19.97985158671269</v>
+        <v>12.79062308332421</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.109920524694024</v>
+        <v>14.08911418340192</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.38715058152361</v>
+        <v>18.75094396428711</v>
       </c>
       <c r="N12">
-        <v>18.07381852327948</v>
+        <v>10.86176809834449</v>
       </c>
       <c r="O12">
-        <v>21.24020805139585</v>
+        <v>15.07015235964639</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.585311760542202</v>
+        <v>15.66738599339573</v>
       </c>
       <c r="C13">
-        <v>5.809872433777492</v>
+        <v>9.191940432375299</v>
       </c>
       <c r="D13">
-        <v>5.165651153475751</v>
+        <v>5.547553804564076</v>
       </c>
       <c r="E13">
-        <v>13.78361659136027</v>
+        <v>18.8937158783606</v>
       </c>
       <c r="F13">
-        <v>23.99661129065864</v>
+        <v>20.21235795916717</v>
       </c>
       <c r="I13">
-        <v>19.98303387008159</v>
+        <v>12.79068301911129</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.097663640595323</v>
+        <v>14.05584700232072</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.37482256752969</v>
+        <v>18.700850699597</v>
       </c>
       <c r="N13">
-        <v>18.0770422104146</v>
+        <v>10.87415137597489</v>
       </c>
       <c r="O13">
-        <v>21.2417414583372</v>
+        <v>15.05861121903858</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.529195273929759</v>
+        <v>15.53587414022175</v>
       </c>
       <c r="C14">
-        <v>5.774821566050394</v>
+        <v>9.120359572052113</v>
       </c>
       <c r="D14">
-        <v>5.153828716785764</v>
+        <v>5.517105263796949</v>
       </c>
       <c r="E14">
-        <v>13.7345786916434</v>
+        <v>18.71044369734125</v>
       </c>
       <c r="F14">
-        <v>23.98913237620653</v>
+        <v>20.11013016808753</v>
       </c>
       <c r="I14">
-        <v>19.99350958470743</v>
+        <v>12.7912527408007</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.057601305006093</v>
+        <v>13.94684755637227</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.33462090967067</v>
+        <v>18.53675125557756</v>
       </c>
       <c r="N14">
-        <v>18.08759638232132</v>
+        <v>10.91457482187788</v>
       </c>
       <c r="O14">
-        <v>21.2468608038288</v>
+        <v>15.02135617207689</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.494674315882326</v>
+        <v>15.45480925931958</v>
       </c>
       <c r="C15">
-        <v>5.753228332655684</v>
+        <v>9.076268033044011</v>
       </c>
       <c r="D15">
-        <v>5.146562530240079</v>
+        <v>5.49836443255708</v>
       </c>
       <c r="E15">
-        <v>13.70453564594259</v>
+        <v>18.59763497318279</v>
       </c>
       <c r="F15">
-        <v>23.98467263681512</v>
+        <v>20.0476919207112</v>
       </c>
       <c r="I15">
-        <v>20.00000123439884</v>
+        <v>12.79188690246012</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.032993762969795</v>
+        <v>13.87969181724717</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.30999925344997</v>
+        <v>18.43566993941918</v>
       </c>
       <c r="N15">
-        <v>18.09409266380947</v>
+        <v>10.93936583292788</v>
       </c>
       <c r="O15">
-        <v>21.25008764069561</v>
+        <v>14.99882964112441</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.29462758615864</v>
+        <v>14.98241909907639</v>
       </c>
       <c r="C16">
-        <v>5.627605760554498</v>
+        <v>8.819818732742167</v>
       </c>
       <c r="D16">
-        <v>5.10455099138426</v>
+        <v>5.389598070921584</v>
       </c>
       <c r="E16">
-        <v>13.53233566204107</v>
+        <v>17.94267462925639</v>
       </c>
       <c r="F16">
-        <v>23.9609791935481</v>
+        <v>19.69268383201652</v>
       </c>
       <c r="I16">
-        <v>20.0383504077557</v>
+        <v>12.79979379211246</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.890971813416011</v>
+        <v>13.48886150853687</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.16898885208928</v>
+        <v>17.84769025200619</v>
       </c>
       <c r="N16">
-        <v>18.1318045821771</v>
+        <v>11.08192473247481</v>
       </c>
       <c r="O16">
-        <v>21.2699744976465</v>
+        <v>14.87418627750823</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.169977243428658</v>
+        <v>14.68560441742344</v>
       </c>
       <c r="C17">
-        <v>5.548877887368751</v>
+        <v>8.659119850615348</v>
       </c>
       <c r="D17">
-        <v>5.078452030784241</v>
+        <v>5.32166525199274</v>
       </c>
       <c r="E17">
-        <v>13.42672583092446</v>
+        <v>17.53320865068404</v>
       </c>
       <c r="F17">
-        <v>23.94811108637703</v>
+        <v>19.47745646476498</v>
       </c>
       <c r="I17">
-        <v>20.06289984857985</v>
+        <v>12.80835082026736</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.802992225524294</v>
+        <v>13.24375474978684</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.08260451854619</v>
+        <v>17.47914355191734</v>
       </c>
       <c r="N17">
-        <v>18.15537273149127</v>
+        <v>11.16984460422068</v>
       </c>
       <c r="O17">
-        <v>21.2834182067339</v>
+        <v>14.80163642698766</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.097595428052369</v>
+        <v>14.51229665370266</v>
       </c>
       <c r="C18">
-        <v>5.502991265674557</v>
+        <v>8.565448722223021</v>
       </c>
       <c r="D18">
-        <v>5.06332298787998</v>
+        <v>5.282154184609416</v>
       </c>
       <c r="E18">
-        <v>13.36601708395036</v>
+        <v>17.29484385846925</v>
       </c>
       <c r="F18">
-        <v>23.94132386531529</v>
+        <v>19.35462811554666</v>
       </c>
       <c r="I18">
-        <v>20.07739573771577</v>
+        <v>12.81459289559002</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.75209293475185</v>
+        <v>13.10081170516214</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.03298054403693</v>
+        <v>17.26426259714465</v>
       </c>
       <c r="N18">
-        <v>18.16908803538276</v>
+        <v>11.22059454633268</v>
       </c>
       <c r="O18">
-        <v>21.29160726349697</v>
+        <v>14.761324572095</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.072972548324882</v>
+        <v>14.45317241033776</v>
       </c>
       <c r="C19">
-        <v>5.487351689385169</v>
+        <v>8.53352006019974</v>
       </c>
       <c r="D19">
-        <v>5.058180573839156</v>
+        <v>5.268701816440306</v>
       </c>
       <c r="E19">
-        <v>13.34547054718802</v>
+        <v>17.21364505050841</v>
       </c>
       <c r="F19">
-        <v>23.93913144773722</v>
+        <v>19.31320862046729</v>
       </c>
       <c r="I19">
-        <v>20.08236828355329</v>
+        <v>12.81692918650148</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.734810267819695</v>
+        <v>13.05207641066735</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.01619104507919</v>
+        <v>17.19100711554766</v>
       </c>
       <c r="N19">
-        <v>18.17375923509661</v>
+        <v>11.23780957719358</v>
       </c>
       <c r="O19">
-        <v>21.29445830826885</v>
+        <v>14.74791689933131</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.183318029396089</v>
+        <v>14.71746849282616</v>
       </c>
       <c r="C20">
-        <v>5.557321313964576</v>
+        <v>8.676354990525072</v>
       </c>
       <c r="D20">
-        <v>5.081242534019262</v>
+        <v>5.328942281380975</v>
       </c>
       <c r="E20">
-        <v>13.43796508805351</v>
+        <v>17.57709133818641</v>
       </c>
       <c r="F20">
-        <v>23.94941738623807</v>
+        <v>19.5002685007405</v>
       </c>
       <c r="I20">
-        <v>20.06024762563121</v>
+        <v>12.80730232741823</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.812388826863486</v>
+        <v>13.2700500804737</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.09179425833044</v>
+        <v>17.5186759207152</v>
       </c>
       <c r="N20">
-        <v>18.15284735940273</v>
+        <v>11.16046689792759</v>
       </c>
       <c r="O20">
-        <v>21.28193983399473</v>
+        <v>14.80921233724277</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.545708997115664</v>
+        <v>15.57460860382487</v>
       </c>
       <c r="C21">
-        <v>5.785142637366083</v>
+        <v>9.141435898723222</v>
       </c>
       <c r="D21">
-        <v>5.157306392372437</v>
+        <v>5.526067569388913</v>
       </c>
       <c r="E21">
-        <v>13.74898367551838</v>
+        <v>18.76438943844659</v>
       </c>
       <c r="F21">
-        <v>23.99130384374569</v>
+        <v>20.14011972221562</v>
       </c>
       <c r="I21">
-        <v>19.99041698698749</v>
+        <v>12.79102572967751</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.06938289035255</v>
+        <v>13.97894468985148</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.3464285771307</v>
+        <v>18.58506899444374</v>
       </c>
       <c r="N21">
-        <v>18.0844897939358</v>
+        <v>10.90269518259331</v>
       </c>
       <c r="O21">
-        <v>21.24533814259657</v>
+        <v>15.03223765445133</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.775987070629306</v>
+        <v>16.11194576136029</v>
       </c>
       <c r="C22">
-        <v>5.928523438850735</v>
+        <v>9.434370495367531</v>
       </c>
       <c r="D22">
-        <v>5.205923443704933</v>
+        <v>5.650878059280909</v>
       </c>
       <c r="E22">
-        <v>13.9520528783209</v>
+        <v>19.51568619222568</v>
       </c>
       <c r="F22">
-        <v>24.02411303692283</v>
+        <v>20.56638627173305</v>
       </c>
       <c r="I22">
-        <v>19.94813307071274</v>
+        <v>12.79303941716265</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.26438895883498</v>
+        <v>14.42477231631491</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.51302903587995</v>
+        <v>19.25664165040245</v>
       </c>
       <c r="N22">
-        <v>18.04122708891403</v>
+        <v>10.73561814031357</v>
       </c>
       <c r="O22">
-        <v>21.22549252207365</v>
+        <v>15.19106578381498</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.653704424264181</v>
+        <v>15.82723984060841</v>
       </c>
       <c r="C23">
-        <v>5.8525086545157</v>
+        <v>9.279031785489725</v>
       </c>
       <c r="D23">
-        <v>5.180078061281628</v>
+        <v>5.584637794205956</v>
       </c>
       <c r="E23">
-        <v>13.84371353768609</v>
+        <v>19.11692569412852</v>
       </c>
       <c r="F23">
-        <v>24.00610685233294</v>
+        <v>20.33816285079826</v>
       </c>
       <c r="I23">
-        <v>19.97039343474979</v>
+        <v>12.79076327789355</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.147701070672316</v>
+        <v>14.18842267375268</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.42411222347832</v>
+        <v>18.90050853078776</v>
       </c>
       <c r="N23">
-        <v>18.06418829578033</v>
+        <v>10.82467394950938</v>
       </c>
       <c r="O23">
-        <v>21.23571114922781</v>
+        <v>15.10507960056806</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.177288893293643</v>
+        <v>14.70307104737426</v>
       </c>
       <c r="C24">
-        <v>5.5535059857793</v>
+        <v>8.668566980865695</v>
       </c>
       <c r="D24">
-        <v>5.07998133445313</v>
+        <v>5.32565375400437</v>
       </c>
       <c r="E24">
-        <v>13.43288378996904</v>
+        <v>17.55726119429087</v>
       </c>
       <c r="F24">
-        <v>23.94882490502122</v>
+        <v>19.48995234299879</v>
       </c>
       <c r="I24">
-        <v>20.06144550552796</v>
+        <v>12.80777224151743</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.808141611681162</v>
+        <v>13.25816827790616</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.08763944967563</v>
+        <v>17.50081268163043</v>
       </c>
       <c r="N24">
-        <v>18.15398856399855</v>
+        <v>11.16470592230021</v>
       </c>
       <c r="O24">
-        <v>21.28260677325956</v>
+        <v>14.80578291882437</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.637517193199793</v>
+        <v>13.39146498721139</v>
       </c>
       <c r="C25">
-        <v>5.20798468406523</v>
+        <v>7.962657412926874</v>
       </c>
       <c r="D25">
-        <v>4.967545162502847</v>
+        <v>5.029656450369871</v>
       </c>
       <c r="E25">
-        <v>12.99141156243948</v>
+        <v>15.76559276138707</v>
       </c>
       <c r="F25">
-        <v>23.9105281031351</v>
+        <v>18.61224494687291</v>
       </c>
       <c r="I25">
-        <v>20.17401833771684</v>
+        <v>12.87609366949878</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.432024242600122</v>
+        <v>12.17971299424205</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.72729739277816</v>
+        <v>15.87982407366903</v>
       </c>
       <c r="N25">
-        <v>18.25695665149558</v>
+        <v>11.5385075524456</v>
       </c>
       <c r="O25">
-        <v>21.35063941834073</v>
+        <v>14.53679263200203</v>
       </c>
     </row>
   </sheetData>
